--- a/notebooks/cleaned_transactions_processed.xlsx
+++ b/notebooks/cleaned_transactions_processed.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Antoine\OneDrive\Documents\Umbrella_Fund\Code_projects\umbrella\notebooks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{075CFFAF-05C5-46B9-90FC-512EFB7A0E17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{019CD0E8-095C-49DF-ACF6-878A425BD3FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$J$251</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$J$253</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1180" uniqueCount="298">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1186" uniqueCount="299">
   <si>
     <t>type</t>
   </si>
@@ -930,6 +930,9 @@
   </si>
   <si>
     <t>SXLP.MI</t>
+  </si>
+  <si>
+    <t>NVDA</t>
   </si>
 </sst>
 </file>
@@ -1013,7 +1016,7 @@
     <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1316,10 +1319,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N251"/>
+  <dimension ref="A1:J253"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A194" workbookViewId="0">
-      <selection activeCell="O218" sqref="O218"/>
+    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="D72" sqref="D1:D1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3311,7 +3314,7 @@
         <v>20</v>
       </c>
       <c r="E81" t="str">
-        <f t="shared" ref="E81:E144" si="2">IF(D81="RITHM CAPITAL CORP","RITM",
+        <f t="shared" ref="E81:E146" si="2">IF(D81="RITHM CAPITAL CORP","RITM",
 IF(D81="SALESFORCE.COM","CRM",
 IF(D81="NVIDIA CORP","NVDA",
 IF(D81="MICROSOFT CORP","MSFT",
@@ -3380,59 +3383,59 @@
       </c>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A84" t="s">
-        <v>7</v>
-      </c>
-      <c r="B84" t="s">
-        <v>54</v>
-      </c>
-      <c r="C84" t="s">
-        <v>199</v>
-      </c>
-      <c r="E84" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="G84" t="s">
-        <v>9</v>
-      </c>
-      <c r="H84">
-        <v>1</v>
-      </c>
+      <c r="A84" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="B84" s="6">
+        <v>45452</v>
+      </c>
+      <c r="C84" s="5">
+        <v>-6044.4</v>
+      </c>
+      <c r="D84" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E84" s="5" t="s">
+        <v>298</v>
+      </c>
+      <c r="F84" s="5">
+        <v>50</v>
+      </c>
+      <c r="G84" s="5"/>
+      <c r="H84" s="5"/>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A85" t="s">
-        <v>7</v>
-      </c>
-      <c r="B85" t="s">
-        <v>55</v>
-      </c>
-      <c r="C85" t="s">
-        <v>200</v>
-      </c>
-      <c r="E85" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="G85" t="s">
-        <v>9</v>
-      </c>
-      <c r="H85">
-        <v>1</v>
-      </c>
+      <c r="A85" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B85" s="6">
+        <v>45452</v>
+      </c>
+      <c r="C85" s="5">
+        <f>1208.88*5</f>
+        <v>6044.4000000000005</v>
+      </c>
+      <c r="D85" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E85" s="5" t="s">
+        <v>298</v>
+      </c>
+      <c r="F85" s="5">
+        <v>5</v>
+      </c>
+      <c r="G85" s="5"/>
+      <c r="H85" s="5"/>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B86" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C86" t="s">
-        <v>176</v>
-      </c>
-      <c r="D86" t="s">
-        <v>133</v>
+        <v>199</v>
       </c>
       <c r="E86" t="str">
         <f t="shared" si="2"/>
@@ -3447,20 +3450,17 @@
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="B87" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C87" t="s">
-        <v>201</v>
-      </c>
-      <c r="D87" t="s">
-        <v>13</v>
+        <v>200</v>
       </c>
       <c r="E87" t="str">
         <f t="shared" si="2"/>
-        <v>RITM</v>
+        <v/>
       </c>
       <c r="G87" t="s">
         <v>9</v>
@@ -3471,20 +3471,20 @@
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B88" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C88" t="s">
-        <v>202</v>
+        <v>176</v>
       </c>
       <c r="D88" t="s">
-        <v>15</v>
+        <v>133</v>
       </c>
       <c r="E88" t="str">
         <f t="shared" si="2"/>
-        <v>CRM</v>
+        <v/>
       </c>
       <c r="G88" t="s">
         <v>9</v>
@@ -3495,20 +3495,20 @@
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B89" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C89" t="s">
-        <v>178</v>
+        <v>201</v>
       </c>
       <c r="D89" t="s">
-        <v>133</v>
+        <v>13</v>
       </c>
       <c r="E89" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v>RITM</v>
       </c>
       <c r="G89" t="s">
         <v>9</v>
@@ -3519,17 +3519,20 @@
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B90" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C90" t="s">
-        <v>203</v>
+        <v>202</v>
+      </c>
+      <c r="D90" t="s">
+        <v>15</v>
       </c>
       <c r="E90" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v>CRM</v>
       </c>
       <c r="G90" t="s">
         <v>9</v>
@@ -3543,10 +3546,10 @@
         <v>10</v>
       </c>
       <c r="B91" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C91" t="s">
-        <v>141</v>
+        <v>178</v>
       </c>
       <c r="D91" t="s">
         <v>133</v>
@@ -3564,20 +3567,17 @@
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="B92" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C92" t="s">
-        <v>204</v>
-      </c>
-      <c r="D92" t="s">
-        <v>18</v>
+        <v>203</v>
       </c>
       <c r="E92" t="str">
         <f t="shared" si="2"/>
-        <v>NVDA</v>
+        <v/>
       </c>
       <c r="G92" t="s">
         <v>9</v>
@@ -3588,20 +3588,20 @@
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B93" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C93" t="s">
-        <v>205</v>
+        <v>141</v>
       </c>
       <c r="D93" t="s">
-        <v>20</v>
+        <v>133</v>
       </c>
       <c r="E93" t="str">
         <f t="shared" si="2"/>
-        <v>SPYD.DE</v>
+        <v/>
       </c>
       <c r="G93" t="s">
         <v>9</v>
@@ -3611,44 +3611,45 @@
       </c>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A94" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B94" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="C94" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="D94" s="2"/>
+      <c r="A94" t="s">
+        <v>12</v>
+      </c>
+      <c r="B94" t="s">
+        <v>59</v>
+      </c>
+      <c r="C94" t="s">
+        <v>204</v>
+      </c>
+      <c r="D94" t="s">
+        <v>18</v>
+      </c>
       <c r="E94" t="str">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="F94" s="2"/>
+        <v>NVDA</v>
+      </c>
       <c r="G94" t="s">
         <v>9</v>
       </c>
-      <c r="H94" s="2">
+      <c r="H94">
         <v>1</v>
       </c>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B95" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C95" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="D95" t="s">
-        <v>131</v>
+        <v>20</v>
       </c>
       <c r="E95" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v>SPYD.DE</v>
       </c>
       <c r="G95" t="s">
         <v>9</v>
@@ -3658,26 +3659,25 @@
       </c>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A96" t="s">
-        <v>10</v>
-      </c>
-      <c r="B96" t="s">
-        <v>62</v>
-      </c>
-      <c r="C96" t="s">
-        <v>208</v>
-      </c>
-      <c r="D96" t="s">
-        <v>131</v>
-      </c>
+      <c r="A96" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B96" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C96" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="D96" s="2"/>
       <c r="E96" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
+      <c r="F96" s="2"/>
       <c r="G96" t="s">
         <v>9</v>
       </c>
-      <c r="H96">
+      <c r="H96" s="2">
         <v>1</v>
       </c>
     </row>
@@ -3688,11 +3688,11 @@
       <c r="B97" t="s">
         <v>62</v>
       </c>
-      <c r="C97">
-        <v>-2</v>
+      <c r="C97" t="s">
+        <v>207</v>
       </c>
       <c r="D97" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E97" t="str">
         <f t="shared" si="2"/>
@@ -3707,23 +3707,20 @@
     </row>
     <row r="98" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="B98" t="s">
         <v>62</v>
       </c>
       <c r="C98" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D98" t="s">
-        <v>63</v>
+        <v>131</v>
       </c>
       <c r="E98" t="str">
         <f t="shared" si="2"/>
-        <v>WIX</v>
-      </c>
-      <c r="F98">
-        <v>4</v>
+        <v/>
       </c>
       <c r="G98" t="s">
         <v>9</v>
@@ -3734,23 +3731,20 @@
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="B99" t="s">
         <v>62</v>
       </c>
-      <c r="C99" t="s">
-        <v>210</v>
+      <c r="C99">
+        <v>-2</v>
       </c>
       <c r="D99" t="s">
-        <v>63</v>
+        <v>130</v>
       </c>
       <c r="E99" t="str">
         <f t="shared" si="2"/>
-        <v>WIX</v>
-      </c>
-      <c r="F99">
-        <v>3</v>
+        <v/>
       </c>
       <c r="G99" t="s">
         <v>9</v>
@@ -3761,20 +3755,23 @@
     </row>
     <row r="100" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="B100" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C100" t="s">
-        <v>149</v>
+        <v>209</v>
       </c>
       <c r="D100" t="s">
-        <v>132</v>
+        <v>63</v>
       </c>
       <c r="E100" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v>WIX</v>
+      </c>
+      <c r="F100">
+        <v>4</v>
       </c>
       <c r="G100" t="s">
         <v>9</v>
@@ -3785,20 +3782,23 @@
     </row>
     <row r="101" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="B101" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C101" t="s">
-        <v>149</v>
+        <v>210</v>
       </c>
       <c r="D101" t="s">
-        <v>132</v>
+        <v>63</v>
       </c>
       <c r="E101" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v>WIX</v>
+      </c>
+      <c r="F101">
+        <v>3</v>
       </c>
       <c r="G101" t="s">
         <v>9</v>
@@ -3857,13 +3857,16 @@
     </row>
     <row r="104" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B104" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C104" t="s">
-        <v>211</v>
+        <v>149</v>
+      </c>
+      <c r="D104" t="s">
+        <v>132</v>
       </c>
       <c r="E104" t="str">
         <f t="shared" si="2"/>
@@ -3878,20 +3881,20 @@
     </row>
     <row r="105" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B105" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C105" t="s">
-        <v>212</v>
+        <v>149</v>
       </c>
       <c r="D105" t="s">
-        <v>13</v>
+        <v>132</v>
       </c>
       <c r="E105" t="str">
         <f t="shared" si="2"/>
-        <v>RITM</v>
+        <v/>
       </c>
       <c r="G105" t="s">
         <v>9</v>
@@ -3902,13 +3905,13 @@
     </row>
     <row r="106" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B106" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C106" t="s">
-        <v>176</v>
+        <v>211</v>
       </c>
       <c r="E106" t="str">
         <f t="shared" si="2"/>
@@ -3923,17 +3926,20 @@
     </row>
     <row r="107" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B107" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C107" t="s">
-        <v>213</v>
+        <v>212</v>
+      </c>
+      <c r="D107" t="s">
+        <v>13</v>
       </c>
       <c r="E107" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v>RITM</v>
       </c>
       <c r="G107" t="s">
         <v>9</v>
@@ -3944,20 +3950,17 @@
     </row>
     <row r="108" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B108" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C108" t="s">
-        <v>214</v>
-      </c>
-      <c r="D108" t="s">
-        <v>18</v>
+        <v>176</v>
       </c>
       <c r="E108" t="str">
         <f t="shared" si="2"/>
-        <v>NVDA</v>
+        <v/>
       </c>
       <c r="G108" t="s">
         <v>9</v>
@@ -3968,16 +3971,13 @@
     </row>
     <row r="109" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B109" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C109" t="s">
-        <v>141</v>
-      </c>
-      <c r="D109" t="s">
-        <v>133</v>
+        <v>213</v>
       </c>
       <c r="E109" t="str">
         <f t="shared" si="2"/>
@@ -3995,44 +3995,41 @@
         <v>12</v>
       </c>
       <c r="B110" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C110" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D110" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E110" t="str">
         <f t="shared" si="2"/>
-        <v>SPYD.DE</v>
+        <v>NVDA</v>
       </c>
       <c r="G110" t="s">
         <v>9</v>
       </c>
       <c r="H110">
         <v>1</v>
-      </c>
-      <c r="I110">
-        <v>11.95</v>
       </c>
     </row>
     <row r="111" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B111" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C111" t="s">
-        <v>216</v>
+        <v>141</v>
       </c>
       <c r="D111" t="s">
-        <v>13</v>
+        <v>133</v>
       </c>
       <c r="E111" t="str">
         <f t="shared" si="2"/>
-        <v>RITM</v>
+        <v/>
       </c>
       <c r="G111" t="s">
         <v>9</v>
@@ -4043,44 +4040,47 @@
     </row>
     <row r="112" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B112" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C112" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="D112" t="s">
-        <v>133</v>
+        <v>20</v>
       </c>
       <c r="E112" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v>SPYD.DE</v>
       </c>
       <c r="G112" t="s">
         <v>9</v>
       </c>
       <c r="H112">
         <v>1</v>
+      </c>
+      <c r="I112">
+        <v>11.95</v>
       </c>
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B113" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C113" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="D113" t="s">
-        <v>131</v>
+        <v>13</v>
       </c>
       <c r="E113" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v>RITM</v>
       </c>
       <c r="G113" t="s">
         <v>9</v>
@@ -4094,13 +4094,13 @@
         <v>10</v>
       </c>
       <c r="B114" t="s">
-        <v>71</v>
-      </c>
-      <c r="C114">
-        <v>-2</v>
+        <v>70</v>
+      </c>
+      <c r="C114" t="s">
+        <v>217</v>
       </c>
       <c r="D114" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="E114" t="str">
         <f t="shared" si="2"/>
@@ -4115,23 +4115,20 @@
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>48</v>
+        <v>10</v>
       </c>
       <c r="B115" t="s">
         <v>71</v>
       </c>
       <c r="C115" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D115" t="s">
-        <v>63</v>
+        <v>131</v>
       </c>
       <c r="E115" t="str">
         <f t="shared" si="2"/>
-        <v>WIX</v>
-      </c>
-      <c r="F115">
-        <v>7</v>
+        <v/>
       </c>
       <c r="G115" t="s">
         <v>9</v>
@@ -4147,11 +4144,11 @@
       <c r="B116" t="s">
         <v>71</v>
       </c>
-      <c r="C116" t="s">
-        <v>220</v>
+      <c r="C116">
+        <v>-2</v>
       </c>
       <c r="D116" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E116" t="str">
         <f t="shared" si="2"/>
@@ -4166,20 +4163,23 @@
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>10</v>
+        <v>48</v>
       </c>
       <c r="B117" t="s">
         <v>71</v>
       </c>
-      <c r="C117">
-        <v>-2</v>
+      <c r="C117" t="s">
+        <v>219</v>
       </c>
       <c r="D117" t="s">
-        <v>130</v>
+        <v>63</v>
       </c>
       <c r="E117" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v>WIX</v>
+      </c>
+      <c r="F117">
+        <v>7</v>
       </c>
       <c r="G117" t="s">
         <v>9</v>
@@ -4190,23 +4190,20 @@
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>48</v>
+        <v>10</v>
       </c>
       <c r="B118" t="s">
         <v>71</v>
       </c>
       <c r="C118" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D118" t="s">
-        <v>18</v>
+        <v>131</v>
       </c>
       <c r="E118" t="str">
         <f t="shared" si="2"/>
-        <v>NVDA</v>
-      </c>
-      <c r="F118">
-        <v>10</v>
+        <v/>
       </c>
       <c r="G118" t="s">
         <v>9</v>
@@ -4217,13 +4214,16 @@
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B119" t="s">
-        <v>72</v>
-      </c>
-      <c r="C119" t="s">
-        <v>222</v>
+        <v>71</v>
+      </c>
+      <c r="C119">
+        <v>-2</v>
+      </c>
+      <c r="D119" t="s">
+        <v>130</v>
       </c>
       <c r="E119" t="str">
         <f t="shared" si="2"/>
@@ -4238,17 +4238,23 @@
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>7</v>
+        <v>48</v>
       </c>
       <c r="B120" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C120" t="s">
-        <v>223</v>
+        <v>221</v>
+      </c>
+      <c r="D120" t="s">
+        <v>18</v>
       </c>
       <c r="E120" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v>NVDA</v>
+      </c>
+      <c r="F120">
+        <v>1</v>
       </c>
       <c r="G120" t="s">
         <v>9</v>
@@ -4259,20 +4265,17 @@
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="B121" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C121" t="s">
-        <v>224</v>
-      </c>
-      <c r="D121" t="s">
-        <v>13</v>
+        <v>222</v>
       </c>
       <c r="E121" t="str">
         <f t="shared" si="2"/>
-        <v>RITM</v>
+        <v/>
       </c>
       <c r="G121" t="s">
         <v>9</v>
@@ -4283,13 +4286,13 @@
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B122" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C122" t="s">
-        <v>176</v>
+        <v>223</v>
       </c>
       <c r="E122" t="str">
         <f t="shared" si="2"/>
@@ -4303,44 +4306,42 @@
       </c>
     </row>
     <row r="123" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A123" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B123" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="C123" s="2" t="s">
-        <v>225</v>
-      </c>
-      <c r="D123" s="2"/>
+      <c r="A123" t="s">
+        <v>12</v>
+      </c>
+      <c r="B123" t="s">
+        <v>74</v>
+      </c>
+      <c r="C123" t="s">
+        <v>224</v>
+      </c>
+      <c r="D123" t="s">
+        <v>13</v>
+      </c>
       <c r="E123" t="str">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="F123" s="2"/>
+        <v>RITM</v>
+      </c>
       <c r="G123" t="s">
         <v>9</v>
       </c>
-      <c r="H123" s="2">
+      <c r="H123">
         <v>1</v>
       </c>
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B124" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C124" t="s">
-        <v>214</v>
-      </c>
-      <c r="D124" t="s">
-        <v>18</v>
+        <v>176</v>
       </c>
       <c r="E124" t="str">
         <f t="shared" si="2"/>
-        <v>NVDA</v>
+        <v/>
       </c>
       <c r="G124" t="s">
         <v>9</v>
@@ -4350,23 +4351,25 @@
       </c>
     </row>
     <row r="125" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A125" t="s">
-        <v>10</v>
-      </c>
-      <c r="B125" t="s">
-        <v>76</v>
-      </c>
-      <c r="C125" t="s">
-        <v>157</v>
-      </c>
+      <c r="A125" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B125" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C125" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="D125" s="2"/>
       <c r="E125" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
+      <c r="F125" s="2"/>
       <c r="G125" t="s">
         <v>9</v>
       </c>
-      <c r="H125">
+      <c r="H125" s="2">
         <v>1</v>
       </c>
     </row>
@@ -4375,17 +4378,17 @@
         <v>12</v>
       </c>
       <c r="B126" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C126" t="s">
-        <v>226</v>
+        <v>214</v>
       </c>
       <c r="D126" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E126" t="str">
         <f t="shared" si="2"/>
-        <v>SPYD.DE</v>
+        <v>NVDA</v>
       </c>
       <c r="G126" t="s">
         <v>9</v>
@@ -4396,13 +4399,13 @@
     </row>
     <row r="127" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B127" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C127" t="s">
-        <v>227</v>
+        <v>157</v>
       </c>
       <c r="E127" t="str">
         <f t="shared" si="2"/>
@@ -4417,17 +4420,20 @@
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B128" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C128" t="s">
-        <v>228</v>
+        <v>226</v>
+      </c>
+      <c r="D128" t="s">
+        <v>20</v>
       </c>
       <c r="E128" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v>SPYD.DE</v>
       </c>
       <c r="G128" t="s">
         <v>9</v>
@@ -4438,20 +4444,17 @@
     </row>
     <row r="129" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="B129" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C129" t="s">
-        <v>229</v>
-      </c>
-      <c r="D129" t="s">
-        <v>13</v>
+        <v>227</v>
       </c>
       <c r="E129" t="str">
         <f t="shared" si="2"/>
-        <v>RITM</v>
+        <v/>
       </c>
       <c r="G129" t="s">
         <v>9</v>
@@ -4462,13 +4465,13 @@
     </row>
     <row r="130" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B130" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C130" t="s">
-        <v>176</v>
+        <v>228</v>
       </c>
       <c r="E130" t="str">
         <f t="shared" si="2"/>
@@ -4483,17 +4486,20 @@
     </row>
     <row r="131" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B131" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C131" t="s">
-        <v>230</v>
+        <v>229</v>
+      </c>
+      <c r="D131" t="s">
+        <v>13</v>
       </c>
       <c r="E131" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v>RITM</v>
       </c>
       <c r="G131" t="s">
         <v>9</v>
@@ -4504,20 +4510,17 @@
     </row>
     <row r="132" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B132" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C132" t="s">
-        <v>214</v>
-      </c>
-      <c r="D132" t="s">
-        <v>18</v>
+        <v>176</v>
       </c>
       <c r="E132" t="str">
         <f t="shared" si="2"/>
-        <v>NVDA</v>
+        <v/>
       </c>
       <c r="G132" t="s">
         <v>9</v>
@@ -4528,13 +4531,13 @@
     </row>
     <row r="133" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B133" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C133" t="s">
-        <v>157</v>
+        <v>230</v>
       </c>
       <c r="E133" t="str">
         <f t="shared" si="2"/>
@@ -4552,17 +4555,17 @@
         <v>12</v>
       </c>
       <c r="B134" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C134" t="s">
-        <v>231</v>
+        <v>214</v>
       </c>
       <c r="D134" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E134" t="str">
         <f t="shared" si="2"/>
-        <v>SPYD.DE</v>
+        <v>NVDA</v>
       </c>
       <c r="G134" t="s">
         <v>9</v>
@@ -4573,13 +4576,13 @@
     </row>
     <row r="135" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B135" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C135" t="s">
-        <v>232</v>
+        <v>157</v>
       </c>
       <c r="E135" t="str">
         <f t="shared" si="2"/>
@@ -4594,17 +4597,20 @@
     </row>
     <row r="136" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B136" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C136" t="s">
-        <v>233</v>
+        <v>231</v>
+      </c>
+      <c r="D136" t="s">
+        <v>20</v>
       </c>
       <c r="E136" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v>SPYD.DE</v>
       </c>
       <c r="G136" t="s">
         <v>9</v>
@@ -4615,20 +4621,17 @@
     </row>
     <row r="137" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="B137" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C137" t="s">
-        <v>234</v>
-      </c>
-      <c r="D137" t="s">
-        <v>13</v>
+        <v>232</v>
       </c>
       <c r="E137" t="str">
         <f t="shared" si="2"/>
-        <v>RITM</v>
+        <v/>
       </c>
       <c r="G137" t="s">
         <v>9</v>
@@ -4639,16 +4642,13 @@
     </row>
     <row r="138" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B138" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C138" t="s">
-        <v>217</v>
-      </c>
-      <c r="D138" t="s">
-        <v>133</v>
+        <v>233</v>
       </c>
       <c r="E138" t="str">
         <f t="shared" si="2"/>
@@ -4663,20 +4663,20 @@
     </row>
     <row r="139" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B139" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C139" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D139" t="s">
-        <v>131</v>
+        <v>13</v>
       </c>
       <c r="E139" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v>RITM</v>
       </c>
       <c r="G139" t="s">
         <v>9</v>
@@ -4690,13 +4690,13 @@
         <v>10</v>
       </c>
       <c r="B140" t="s">
-        <v>87</v>
-      </c>
-      <c r="C140">
-        <v>-1</v>
+        <v>86</v>
+      </c>
+      <c r="C140" t="s">
+        <v>217</v>
       </c>
       <c r="D140" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="E140" t="str">
         <f t="shared" si="2"/>
@@ -4711,23 +4711,20 @@
     </row>
     <row r="141" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>48</v>
+        <v>10</v>
       </c>
       <c r="B141" t="s">
         <v>87</v>
       </c>
       <c r="C141" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D141" t="s">
-        <v>15</v>
+        <v>131</v>
       </c>
       <c r="E141" t="str">
         <f t="shared" si="2"/>
-        <v>CRM</v>
-      </c>
-      <c r="F141">
-        <v>2</v>
+        <v/>
       </c>
       <c r="G141" t="s">
         <v>9</v>
@@ -4743,11 +4740,11 @@
       <c r="B142" t="s">
         <v>87</v>
       </c>
-      <c r="C142" t="s">
-        <v>237</v>
+      <c r="C142">
+        <v>-1</v>
       </c>
       <c r="D142" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E142" t="str">
         <f t="shared" si="2"/>
@@ -4762,20 +4759,23 @@
     </row>
     <row r="143" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>10</v>
+        <v>48</v>
       </c>
       <c r="B143" t="s">
         <v>87</v>
       </c>
-      <c r="C143">
-        <v>-1</v>
+      <c r="C143" t="s">
+        <v>236</v>
       </c>
       <c r="D143" t="s">
-        <v>130</v>
+        <v>15</v>
       </c>
       <c r="E143" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v>CRM</v>
+      </c>
+      <c r="F143">
+        <v>2</v>
       </c>
       <c r="G143" t="s">
         <v>9</v>
@@ -4786,23 +4786,20 @@
     </row>
     <row r="144" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>48</v>
+        <v>10</v>
       </c>
       <c r="B144" t="s">
         <v>87</v>
       </c>
       <c r="C144" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D144" t="s">
-        <v>13</v>
+        <v>131</v>
       </c>
       <c r="E144" t="str">
         <f t="shared" si="2"/>
-        <v>RITM</v>
-      </c>
-      <c r="F144">
-        <v>10</v>
+        <v/>
       </c>
       <c r="G144" t="s">
         <v>9</v>
@@ -4818,24 +4815,14 @@
       <c r="B145" t="s">
         <v>87</v>
       </c>
-      <c r="C145" t="s">
-        <v>239</v>
+      <c r="C145">
+        <v>-1</v>
       </c>
       <c r="D145" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E145" t="str">
-        <f t="shared" ref="E145:E208" si="3">IF(D145="RITHM CAPITAL CORP","RITM",
-IF(D145="SALESFORCE.COM","CRM",
-IF(D145="NVIDIA CORP","NVDA",
-IF(D145="MICROSOFT CORP","MSFT",
-IF(D145="SPDR S&amp;P US DIVIDEND ARISTOCRATS ETF","SPYD.DE",
-IF(D145="INVESCO PHYSICAL GOLD ETC","SGLD",
-IF(D145="SPDR S&amp;P US CONSUMER STAPLES SEL","SXLP.L",
-IF(D145="WIX.COM LTD","WIX",
-IF(D145="ADVANCED MICRO DEVICES INC","AMD",
-IF(D145="SPROTT PHYSICAL GOLD TRUST","PHYS",
-""))))))))))</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="G145" t="s">
@@ -4847,122 +4834,132 @@
     </row>
     <row r="146" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>10</v>
+        <v>48</v>
       </c>
       <c r="B146" t="s">
         <v>87</v>
       </c>
-      <c r="C146">
+      <c r="C146" t="s">
+        <v>238</v>
+      </c>
+      <c r="D146" t="s">
+        <v>13</v>
+      </c>
+      <c r="E146" t="str">
+        <f t="shared" si="2"/>
+        <v>RITM</v>
+      </c>
+      <c r="F146">
+        <v>10</v>
+      </c>
+      <c r="G146" t="s">
+        <v>9</v>
+      </c>
+      <c r="H146">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="147" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A147" t="s">
+        <v>10</v>
+      </c>
+      <c r="B147" t="s">
+        <v>87</v>
+      </c>
+      <c r="C147" t="s">
+        <v>239</v>
+      </c>
+      <c r="D147" t="s">
+        <v>131</v>
+      </c>
+      <c r="E147" t="str">
+        <f t="shared" ref="E147:E210" si="3">IF(D147="RITHM CAPITAL CORP","RITM",
+IF(D147="SALESFORCE.COM","CRM",
+IF(D147="NVIDIA CORP","NVDA",
+IF(D147="MICROSOFT CORP","MSFT",
+IF(D147="SPDR S&amp;P US DIVIDEND ARISTOCRATS ETF","SPYD.DE",
+IF(D147="INVESCO PHYSICAL GOLD ETC","SGLD",
+IF(D147="SPDR S&amp;P US CONSUMER STAPLES SEL","SXLP.L",
+IF(D147="WIX.COM LTD","WIX",
+IF(D147="ADVANCED MICRO DEVICES INC","AMD",
+IF(D147="SPROTT PHYSICAL GOLD TRUST","PHYS",
+""))))))))))</f>
+        <v/>
+      </c>
+      <c r="G147" t="s">
+        <v>9</v>
+      </c>
+      <c r="H147">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="148" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A148" t="s">
+        <v>10</v>
+      </c>
+      <c r="B148" t="s">
+        <v>87</v>
+      </c>
+      <c r="C148">
         <v>-1</v>
       </c>
-      <c r="D146" t="s">
+      <c r="D148" t="s">
         <v>130</v>
       </c>
-      <c r="E146" t="str">
+      <c r="E148" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="G146" t="s">
-        <v>9</v>
-      </c>
-      <c r="H146">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="147" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A147" s="2" t="s">
+      <c r="G148" t="s">
+        <v>9</v>
+      </c>
+      <c r="H148">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="149" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A149" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="B147" s="2" t="s">
+      <c r="B149" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="C147" s="2" t="s">
+      <c r="C149" s="2" t="s">
         <v>240</v>
       </c>
-      <c r="D147" s="2" t="s">
+      <c r="D149" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E147" t="str">
+      <c r="E149" t="str">
         <f t="shared" si="3"/>
         <v>NVDA</v>
       </c>
-      <c r="F147" s="2">
-        <v>10</v>
-      </c>
-      <c r="G147" t="s">
-        <v>9</v>
-      </c>
-      <c r="H147" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="148" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A148" t="s">
-        <v>10</v>
-      </c>
-      <c r="B148" t="s">
-        <v>87</v>
-      </c>
-      <c r="C148" t="s">
-        <v>172</v>
-      </c>
-      <c r="D148" t="s">
-        <v>131</v>
-      </c>
-      <c r="E148" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="G148" t="s">
-        <v>9</v>
-      </c>
-      <c r="H148">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="149" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A149" t="s">
-        <v>10</v>
-      </c>
-      <c r="B149" t="s">
-        <v>87</v>
-      </c>
-      <c r="C149">
-        <v>-1</v>
-      </c>
-      <c r="D149" t="s">
-        <v>130</v>
-      </c>
-      <c r="E149" t="str">
-        <f t="shared" si="3"/>
-        <v/>
+      <c r="F149" s="2">
+        <v>1</v>
       </c>
       <c r="G149" t="s">
         <v>9</v>
       </c>
-      <c r="H149">
+      <c r="H149" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="150" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="B150" t="s">
         <v>87</v>
       </c>
       <c r="C150" t="s">
-        <v>241</v>
+        <v>172</v>
       </c>
       <c r="D150" t="s">
-        <v>88</v>
+        <v>131</v>
       </c>
       <c r="E150" t="str">
         <f t="shared" si="3"/>
-        <v>PHYS</v>
-      </c>
-      <c r="F150">
-        <v>7</v>
+        <v/>
       </c>
       <c r="G150" t="s">
         <v>9</v>
@@ -4978,11 +4975,11 @@
       <c r="B151" t="s">
         <v>87</v>
       </c>
-      <c r="C151" t="s">
-        <v>242</v>
+      <c r="C151">
+        <v>-1</v>
       </c>
       <c r="D151" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E151" t="str">
         <f t="shared" si="3"/>
@@ -4997,23 +4994,23 @@
     </row>
     <row r="152" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>48</v>
+        <v>25</v>
       </c>
       <c r="B152" t="s">
         <v>87</v>
       </c>
       <c r="C152" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="D152" t="s">
-        <v>20</v>
+        <v>88</v>
       </c>
       <c r="E152" t="str">
         <f t="shared" si="3"/>
-        <v>SPYD.DE</v>
+        <v>PHYS</v>
       </c>
       <c r="F152">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="G152" t="s">
         <v>9</v>
@@ -5030,7 +5027,7 @@
         <v>87</v>
       </c>
       <c r="C153" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="D153" t="s">
         <v>131</v>
@@ -5048,20 +5045,23 @@
     </row>
     <row r="154" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>10</v>
+        <v>48</v>
       </c>
       <c r="B154" t="s">
         <v>87</v>
       </c>
-      <c r="C154">
-        <v>-1</v>
+      <c r="C154" t="s">
+        <v>243</v>
       </c>
       <c r="D154" t="s">
-        <v>130</v>
+        <v>20</v>
       </c>
       <c r="E154" t="str">
         <f t="shared" si="3"/>
-        <v/>
+        <v>SPYD.DE</v>
+      </c>
+      <c r="F154">
+        <v>2</v>
       </c>
       <c r="G154" t="s">
         <v>9</v>
@@ -5072,23 +5072,20 @@
     </row>
     <row r="155" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>48</v>
+        <v>10</v>
       </c>
       <c r="B155" t="s">
         <v>87</v>
       </c>
       <c r="C155" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D155" t="s">
-        <v>49</v>
+        <v>131</v>
       </c>
       <c r="E155" t="str">
         <f t="shared" si="3"/>
-        <v>SGLD</v>
-      </c>
-      <c r="F155">
-        <v>1</v>
+        <v/>
       </c>
       <c r="G155" t="s">
         <v>9</v>
@@ -5099,13 +5096,16 @@
     </row>
     <row r="156" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B156" t="s">
-        <v>89</v>
-      </c>
-      <c r="C156" t="s">
-        <v>246</v>
+        <v>87</v>
+      </c>
+      <c r="C156">
+        <v>-1</v>
+      </c>
+      <c r="D156" t="s">
+        <v>130</v>
       </c>
       <c r="E156" t="str">
         <f t="shared" si="3"/>
@@ -5120,20 +5120,23 @@
     </row>
     <row r="157" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>12</v>
+        <v>48</v>
       </c>
       <c r="B157" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C157" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="D157" t="s">
-        <v>18</v>
+        <v>49</v>
       </c>
       <c r="E157" t="str">
         <f t="shared" si="3"/>
-        <v>NVDA</v>
+        <v>SGLD</v>
+      </c>
+      <c r="F157">
+        <v>1</v>
       </c>
       <c r="G157" t="s">
         <v>9</v>
@@ -5144,16 +5147,13 @@
     </row>
     <row r="158" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B158" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C158" t="s">
-        <v>157</v>
-      </c>
-      <c r="D158" t="s">
-        <v>133</v>
+        <v>246</v>
       </c>
       <c r="E158" t="str">
         <f t="shared" si="3"/>
@@ -5171,17 +5171,17 @@
         <v>12</v>
       </c>
       <c r="B159" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C159" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D159" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E159" t="str">
         <f t="shared" si="3"/>
-        <v>SPYD.DE</v>
+        <v>NVDA</v>
       </c>
       <c r="G159" t="s">
         <v>9</v>
@@ -5192,13 +5192,16 @@
     </row>
     <row r="160" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B160" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C160" t="s">
-        <v>249</v>
+        <v>157</v>
+      </c>
+      <c r="D160" t="s">
+        <v>133</v>
       </c>
       <c r="E160" t="str">
         <f t="shared" si="3"/>
@@ -5213,23 +5216,26 @@
     </row>
     <row r="161" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B161" t="s">
-        <v>93</v>
-      </c>
-      <c r="C161">
-        <v>250</v>
+        <v>91</v>
+      </c>
+      <c r="C161" t="s">
+        <v>248</v>
+      </c>
+      <c r="D161" t="s">
+        <v>20</v>
       </c>
       <c r="E161" t="str">
         <f t="shared" si="3"/>
-        <v/>
+        <v>SPYD.DE</v>
       </c>
       <c r="G161" t="s">
         <v>9</v>
       </c>
       <c r="H161">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="162" spans="1:9" x14ac:dyDescent="0.25">
@@ -5237,10 +5243,10 @@
         <v>7</v>
       </c>
       <c r="B162" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C162" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E162" t="str">
         <f t="shared" si="3"/>
@@ -5255,40 +5261,34 @@
     </row>
     <row r="163" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="B163" t="s">
-        <v>95</v>
-      </c>
-      <c r="C163" t="s">
-        <v>251</v>
-      </c>
-      <c r="D163" t="s">
-        <v>13</v>
+        <v>93</v>
+      </c>
+      <c r="C163">
+        <v>250</v>
       </c>
       <c r="E163" t="str">
         <f t="shared" si="3"/>
-        <v>RITM</v>
+        <v/>
       </c>
       <c r="G163" t="s">
         <v>9</v>
       </c>
       <c r="H163">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="164" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B164" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C164" t="s">
-        <v>217</v>
-      </c>
-      <c r="D164" t="s">
-        <v>133</v>
+        <v>250</v>
       </c>
       <c r="E164" t="str">
         <f t="shared" si="3"/>
@@ -5302,25 +5302,26 @@
       </c>
     </row>
     <row r="165" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A165" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B165" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="C165" s="2" t="s">
-        <v>252</v>
-      </c>
-      <c r="D165" s="2"/>
+      <c r="A165" t="s">
+        <v>12</v>
+      </c>
+      <c r="B165" t="s">
+        <v>95</v>
+      </c>
+      <c r="C165" t="s">
+        <v>251</v>
+      </c>
+      <c r="D165" t="s">
+        <v>13</v>
+      </c>
       <c r="E165" t="str">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="F165" s="2"/>
+        <v>RITM</v>
+      </c>
       <c r="G165" t="s">
         <v>9</v>
       </c>
-      <c r="H165" s="2">
+      <c r="H165">
         <v>1</v>
       </c>
     </row>
@@ -5329,13 +5330,13 @@
         <v>10</v>
       </c>
       <c r="B166" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C166" t="s">
-        <v>149</v>
+        <v>217</v>
       </c>
       <c r="D166" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E166" t="str">
         <f t="shared" si="3"/>
@@ -5349,26 +5350,25 @@
       </c>
     </row>
     <row r="167" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A167" t="s">
-        <v>10</v>
-      </c>
-      <c r="B167" t="s">
+      <c r="A167" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B167" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="C167" t="s">
-        <v>149</v>
-      </c>
-      <c r="D167" t="s">
-        <v>132</v>
-      </c>
+      <c r="C167" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="D167" s="2"/>
       <c r="E167" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
+      <c r="F167" s="2"/>
       <c r="G167" t="s">
         <v>9</v>
       </c>
-      <c r="H167">
+      <c r="H167" s="2">
         <v>1</v>
       </c>
     </row>
@@ -5446,47 +5446,44 @@
     </row>
     <row r="171" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B171" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C171" t="s">
-        <v>253</v>
+        <v>149</v>
       </c>
       <c r="D171" t="s">
-        <v>20</v>
+        <v>132</v>
       </c>
       <c r="E171" t="str">
         <f t="shared" si="3"/>
-        <v>SPYD.DE</v>
+        <v/>
       </c>
       <c r="G171" t="s">
         <v>9</v>
       </c>
       <c r="H171">
         <v>1</v>
-      </c>
-      <c r="I171">
-        <v>10.77</v>
       </c>
     </row>
     <row r="172" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B172" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C172" t="s">
-        <v>247</v>
+        <v>149</v>
       </c>
       <c r="D172" t="s">
-        <v>18</v>
+        <v>132</v>
       </c>
       <c r="E172" t="str">
         <f t="shared" si="3"/>
-        <v>NVDA</v>
+        <v/>
       </c>
       <c r="G172" t="s">
         <v>9</v>
@@ -5497,44 +5494,47 @@
     </row>
     <row r="173" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B173" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C173" t="s">
-        <v>141</v>
+        <v>253</v>
       </c>
       <c r="D173" t="s">
-        <v>133</v>
+        <v>20</v>
       </c>
       <c r="E173" t="str">
         <f t="shared" si="3"/>
-        <v/>
+        <v>SPYD.DE</v>
       </c>
       <c r="G173" t="s">
         <v>9</v>
       </c>
       <c r="H173">
         <v>1</v>
+      </c>
+      <c r="I173">
+        <v>10.77</v>
       </c>
     </row>
     <row r="174" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B174" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C174" t="s">
-        <v>254</v>
+        <v>247</v>
       </c>
       <c r="D174" t="s">
-        <v>131</v>
+        <v>18</v>
       </c>
       <c r="E174" t="str">
         <f t="shared" si="3"/>
-        <v/>
+        <v>NVDA</v>
       </c>
       <c r="G174" t="s">
         <v>9</v>
@@ -5545,23 +5545,20 @@
     </row>
     <row r="175" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
-        <v>48</v>
+        <v>10</v>
       </c>
       <c r="B175" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C175" t="s">
-        <v>255</v>
+        <v>141</v>
       </c>
       <c r="D175" t="s">
-        <v>20</v>
+        <v>133</v>
       </c>
       <c r="E175" t="str">
         <f t="shared" si="3"/>
-        <v>SPYD.DE</v>
-      </c>
-      <c r="F175">
-        <v>8</v>
+        <v/>
       </c>
       <c r="G175" t="s">
         <v>9</v>
@@ -5578,7 +5575,7 @@
         <v>99</v>
       </c>
       <c r="C176" t="s">
-        <v>145</v>
+        <v>254</v>
       </c>
       <c r="D176" t="s">
         <v>131</v>
@@ -5596,20 +5593,23 @@
     </row>
     <row r="177" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
-        <v>10</v>
+        <v>48</v>
       </c>
       <c r="B177" t="s">
         <v>99</v>
       </c>
-      <c r="C177">
-        <v>-1</v>
+      <c r="C177" t="s">
+        <v>255</v>
       </c>
       <c r="D177" t="s">
-        <v>130</v>
+        <v>20</v>
       </c>
       <c r="E177" t="str">
         <f t="shared" si="3"/>
-        <v/>
+        <v>SPYD.DE</v>
+      </c>
+      <c r="F177">
+        <v>8</v>
       </c>
       <c r="G177" t="s">
         <v>9</v>
@@ -5620,32 +5620,26 @@
     </row>
     <row r="178" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
-        <v>48</v>
+        <v>10</v>
       </c>
       <c r="B178" t="s">
         <v>99</v>
       </c>
       <c r="C178" t="s">
-        <v>256</v>
+        <v>145</v>
       </c>
       <c r="D178" t="s">
-        <v>15</v>
+        <v>131</v>
       </c>
       <c r="E178" t="str">
         <f t="shared" si="3"/>
-        <v>CRM</v>
-      </c>
-      <c r="F178">
-        <v>1</v>
+        <v/>
       </c>
       <c r="G178" t="s">
         <v>9</v>
       </c>
       <c r="H178">
         <v>1</v>
-      </c>
-      <c r="I178">
-        <v>142</v>
       </c>
     </row>
     <row r="179" spans="1:9" x14ac:dyDescent="0.25">
@@ -5655,11 +5649,11 @@
       <c r="B179" t="s">
         <v>99</v>
       </c>
-      <c r="C179" t="s">
-        <v>257</v>
+      <c r="C179">
+        <v>-1</v>
       </c>
       <c r="D179" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E179" t="str">
         <f t="shared" si="3"/>
@@ -5674,47 +5668,50 @@
     </row>
     <row r="180" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
-        <v>10</v>
+        <v>48</v>
       </c>
       <c r="B180" t="s">
         <v>99</v>
       </c>
-      <c r="C180">
-        <v>-1</v>
+      <c r="C180" t="s">
+        <v>256</v>
       </c>
       <c r="D180" t="s">
-        <v>130</v>
+        <v>15</v>
       </c>
       <c r="E180" t="str">
         <f t="shared" si="3"/>
-        <v/>
+        <v>CRM</v>
+      </c>
+      <c r="F180">
+        <v>1</v>
       </c>
       <c r="G180" t="s">
         <v>9</v>
       </c>
       <c r="H180">
         <v>1</v>
+      </c>
+      <c r="I180">
+        <v>142</v>
       </c>
     </row>
     <row r="181" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
-        <v>48</v>
+        <v>10</v>
       </c>
       <c r="B181" t="s">
         <v>99</v>
       </c>
       <c r="C181" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D181" t="s">
-        <v>18</v>
+        <v>131</v>
       </c>
       <c r="E181" t="str">
         <f t="shared" si="3"/>
-        <v>NVDA</v>
-      </c>
-      <c r="F181">
-        <v>10</v>
+        <v/>
       </c>
       <c r="G181" t="s">
         <v>9</v>
@@ -5722,50 +5719,50 @@
       <c r="H181">
         <v>1</v>
       </c>
-      <c r="I181">
-        <v>141</v>
-      </c>
     </row>
     <row r="182" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A182" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B182" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="C182" s="4" t="s">
-        <v>259</v>
-      </c>
-      <c r="D182" s="4"/>
-      <c r="E182" s="5" t="str">
+      <c r="A182" t="s">
+        <v>10</v>
+      </c>
+      <c r="B182" t="s">
+        <v>99</v>
+      </c>
+      <c r="C182">
+        <v>-1</v>
+      </c>
+      <c r="D182" t="s">
+        <v>130</v>
+      </c>
+      <c r="E182" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="F182" s="4"/>
-      <c r="G182" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="H182" s="4">
-        <v>1</v>
-      </c>
-      <c r="I182" s="4"/>
+      <c r="G182" t="s">
+        <v>9</v>
+      </c>
+      <c r="H182">
+        <v>1</v>
+      </c>
     </row>
     <row r="183" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
-        <v>12</v>
+        <v>48</v>
       </c>
       <c r="B183" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C183" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="D183" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="E183" t="str">
         <f t="shared" si="3"/>
-        <v>RITM</v>
+        <v>NVDA</v>
+      </c>
+      <c r="F183">
+        <v>1</v>
       </c>
       <c r="G183" t="s">
         <v>9</v>
@@ -5773,41 +5770,50 @@
       <c r="H183">
         <v>1</v>
       </c>
+      <c r="I183">
+        <v>141</v>
+      </c>
     </row>
     <row r="184" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A184" t="s">
-        <v>10</v>
-      </c>
-      <c r="B184" t="s">
-        <v>101</v>
-      </c>
-      <c r="C184" t="s">
-        <v>261</v>
-      </c>
-      <c r="E184" t="str">
+      <c r="A184" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B184" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="C184" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="D184" s="4"/>
+      <c r="E184" s="5" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="G184" t="s">
-        <v>9</v>
-      </c>
-      <c r="H184">
-        <v>1</v>
-      </c>
+      <c r="F184" s="4"/>
+      <c r="G184" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="H184" s="4">
+        <v>1</v>
+      </c>
+      <c r="I184" s="4"/>
     </row>
     <row r="185" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B185" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C185" t="s">
-        <v>262</v>
+        <v>260</v>
+      </c>
+      <c r="D185" t="s">
+        <v>13</v>
       </c>
       <c r="E185" t="str">
         <f t="shared" si="3"/>
-        <v/>
+        <v>RITM</v>
       </c>
       <c r="G185" t="s">
         <v>9</v>
@@ -5818,40 +5824,34 @@
     </row>
     <row r="186" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B186" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C186" t="s">
-        <v>263</v>
-      </c>
-      <c r="D186" t="s">
-        <v>18</v>
+        <v>261</v>
       </c>
       <c r="E186" t="str">
         <f t="shared" si="3"/>
-        <v>NVDA</v>
+        <v/>
       </c>
       <c r="G186" t="s">
         <v>9</v>
       </c>
       <c r="H186">
         <v>1</v>
-      </c>
-      <c r="I186">
-        <v>0.08</v>
       </c>
     </row>
     <row r="187" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B187" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C187" t="s">
-        <v>157</v>
+        <v>262</v>
       </c>
       <c r="E187" t="str">
         <f t="shared" si="3"/>
@@ -5869,34 +5869,37 @@
         <v>12</v>
       </c>
       <c r="B188" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C188" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D188" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E188" t="str">
         <f t="shared" si="3"/>
-        <v>SPYD.DE</v>
+        <v>NVDA</v>
       </c>
       <c r="G188" t="s">
         <v>9</v>
       </c>
       <c r="H188">
         <v>1</v>
+      </c>
+      <c r="I188">
+        <v>0.08</v>
       </c>
     </row>
     <row r="189" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B189" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C189" t="s">
-        <v>265</v>
+        <v>157</v>
       </c>
       <c r="E189" t="str">
         <f t="shared" si="3"/>
@@ -5911,17 +5914,20 @@
     </row>
     <row r="190" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B190" t="s">
-        <v>106</v>
-      </c>
-      <c r="C190">
-        <v>167</v>
+        <v>104</v>
+      </c>
+      <c r="C190" t="s">
+        <v>264</v>
+      </c>
+      <c r="D190" t="s">
+        <v>20</v>
       </c>
       <c r="E190" t="str">
         <f t="shared" si="3"/>
-        <v/>
+        <v>SPYD.DE</v>
       </c>
       <c r="G190" t="s">
         <v>9</v>
@@ -5932,40 +5938,34 @@
     </row>
     <row r="191" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="B191" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C191" t="s">
-        <v>266</v>
-      </c>
-      <c r="D191" t="s">
-        <v>13</v>
+        <v>265</v>
       </c>
       <c r="E191" t="str">
         <f t="shared" si="3"/>
-        <v>RITM</v>
+        <v/>
       </c>
       <c r="G191" t="s">
         <v>9</v>
       </c>
       <c r="H191">
         <v>1</v>
-      </c>
-      <c r="I191">
-        <v>7.22</v>
       </c>
     </row>
     <row r="192" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B192" t="s">
-        <v>107</v>
-      </c>
-      <c r="C192" t="s">
-        <v>261</v>
+        <v>106</v>
+      </c>
+      <c r="C192">
+        <v>167</v>
       </c>
       <c r="E192" t="str">
         <f t="shared" si="3"/>
@@ -5979,45 +5979,45 @@
       </c>
     </row>
     <row r="193" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A193" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B193" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="C193" s="2" t="s">
-        <v>267</v>
-      </c>
-      <c r="D193" s="2"/>
+      <c r="A193" t="s">
+        <v>12</v>
+      </c>
+      <c r="B193" t="s">
+        <v>107</v>
+      </c>
+      <c r="C193" t="s">
+        <v>266</v>
+      </c>
+      <c r="D193" t="s">
+        <v>13</v>
+      </c>
       <c r="E193" t="str">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="F193" s="2"/>
+        <v>RITM</v>
+      </c>
       <c r="G193" t="s">
         <v>9</v>
       </c>
-      <c r="H193" s="2">
-        <v>1</v>
-      </c>
-      <c r="I193" s="2"/>
+      <c r="H193">
+        <v>1</v>
+      </c>
+      <c r="I193">
+        <v>7.22</v>
+      </c>
     </row>
     <row r="194" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B194" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C194" t="s">
-        <v>268</v>
-      </c>
-      <c r="D194" t="s">
-        <v>18</v>
+        <v>261</v>
       </c>
       <c r="E194" t="str">
         <f t="shared" si="3"/>
-        <v>NVDA</v>
+        <v/>
       </c>
       <c r="G194" t="s">
         <v>9</v>
@@ -6025,50 +6025,47 @@
       <c r="H194">
         <v>1</v>
       </c>
-      <c r="I194">
-        <v>0.04</v>
-      </c>
     </row>
     <row r="195" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A195" t="s">
-        <v>10</v>
-      </c>
-      <c r="B195" t="s">
-        <v>109</v>
-      </c>
-      <c r="C195" t="s">
-        <v>157</v>
-      </c>
-      <c r="D195" t="s">
-        <v>133</v>
-      </c>
+      <c r="A195" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B195" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="C195" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="D195" s="2"/>
       <c r="E195" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
+      <c r="F195" s="2"/>
       <c r="G195" t="s">
         <v>9</v>
       </c>
-      <c r="H195">
-        <v>1</v>
-      </c>
+      <c r="H195" s="2">
+        <v>1</v>
+      </c>
+      <c r="I195" s="2"/>
     </row>
     <row r="196" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>12</v>
       </c>
       <c r="B196" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C196" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D196" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E196" t="str">
         <f t="shared" si="3"/>
-        <v>SPYD.DE</v>
+        <v>NVDA</v>
       </c>
       <c r="G196" t="s">
         <v>9</v>
@@ -6077,7 +6074,7 @@
         <v>1</v>
       </c>
       <c r="I196">
-        <v>7.08</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="197" spans="1:9" x14ac:dyDescent="0.25">
@@ -6085,13 +6082,13 @@
         <v>10</v>
       </c>
       <c r="B197" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C197" t="s">
-        <v>270</v>
+        <v>157</v>
       </c>
       <c r="D197" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="E197" t="str">
         <f t="shared" si="3"/>
@@ -6106,56 +6103,53 @@
     </row>
     <row r="198" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B198" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C198" t="s">
-        <v>145</v>
+        <v>269</v>
       </c>
       <c r="D198" t="s">
-        <v>130</v>
+        <v>20</v>
       </c>
       <c r="E198" t="str">
         <f t="shared" si="3"/>
-        <v/>
+        <v>SPYD.DE</v>
       </c>
       <c r="G198" t="s">
         <v>9</v>
       </c>
       <c r="H198">
         <v>1</v>
+      </c>
+      <c r="I198">
+        <v>7.08</v>
       </c>
     </row>
     <row r="199" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
-        <v>48</v>
+        <v>10</v>
       </c>
       <c r="B199" t="s">
         <v>111</v>
       </c>
       <c r="C199" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D199" t="s">
-        <v>15</v>
+        <v>131</v>
       </c>
       <c r="E199" t="str">
         <f t="shared" si="3"/>
-        <v>CRM</v>
-      </c>
-      <c r="F199">
-        <v>1</v>
+        <v/>
       </c>
       <c r="G199" t="s">
         <v>9</v>
       </c>
       <c r="H199">
         <v>1</v>
-      </c>
-      <c r="I199">
-        <v>160.65</v>
       </c>
     </row>
     <row r="200" spans="1:9" x14ac:dyDescent="0.25">
@@ -6166,10 +6160,10 @@
         <v>111</v>
       </c>
       <c r="C200" t="s">
-        <v>272</v>
+        <v>145</v>
       </c>
       <c r="D200" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E200" t="str">
         <f t="shared" si="3"/>
@@ -6184,67 +6178,70 @@
     </row>
     <row r="201" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
-        <v>10</v>
+        <v>48</v>
       </c>
       <c r="B201" t="s">
         <v>111</v>
       </c>
       <c r="C201" t="s">
-        <v>145</v>
+        <v>271</v>
       </c>
       <c r="D201" t="s">
-        <v>130</v>
+        <v>15</v>
       </c>
       <c r="E201" t="str">
         <f t="shared" si="3"/>
-        <v/>
+        <v>CRM</v>
+      </c>
+      <c r="F201">
+        <v>1</v>
       </c>
       <c r="G201" t="s">
         <v>9</v>
       </c>
       <c r="H201">
         <v>1</v>
+      </c>
+      <c r="I201">
+        <v>160.65</v>
       </c>
     </row>
     <row r="202" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
-        <v>48</v>
+        <v>10</v>
       </c>
       <c r="B202" t="s">
         <v>111</v>
       </c>
       <c r="C202" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D202" t="s">
-        <v>18</v>
+        <v>131</v>
       </c>
       <c r="E202" t="str">
         <f t="shared" si="3"/>
-        <v>NVDA</v>
-      </c>
-      <c r="F202">
-        <v>1</v>
+        <v/>
       </c>
       <c r="G202" t="s">
         <v>9</v>
       </c>
       <c r="H202">
         <v>1</v>
-      </c>
-      <c r="I202">
-        <v>155.59</v>
       </c>
     </row>
     <row r="203" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B203" t="s">
-        <v>112</v>
-      </c>
-      <c r="C203">
-        <v>167</v>
+        <v>111</v>
+      </c>
+      <c r="C203" t="s">
+        <v>145</v>
+      </c>
+      <c r="D203" t="s">
+        <v>130</v>
       </c>
       <c r="E203" t="str">
         <f t="shared" si="3"/>
@@ -6259,40 +6256,43 @@
     </row>
     <row r="204" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
-        <v>10</v>
+        <v>48</v>
       </c>
       <c r="B204" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C204" t="s">
-        <v>149</v>
+        <v>273</v>
       </c>
       <c r="D204" t="s">
-        <v>132</v>
+        <v>18</v>
       </c>
       <c r="E204" t="str">
         <f t="shared" si="3"/>
-        <v/>
+        <v>NVDA</v>
+      </c>
+      <c r="F204">
+        <v>1</v>
       </c>
       <c r="G204" t="s">
         <v>9</v>
       </c>
       <c r="H204">
         <v>1</v>
+      </c>
+      <c r="I204">
+        <v>155.59</v>
       </c>
     </row>
     <row r="205" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B205" t="s">
-        <v>114</v>
-      </c>
-      <c r="C205" t="s">
-        <v>185</v>
-      </c>
-      <c r="D205" t="s">
-        <v>131</v>
+        <v>112</v>
+      </c>
+      <c r="C205">
+        <v>167</v>
       </c>
       <c r="E205" t="str">
         <f t="shared" si="3"/>
@@ -6310,13 +6310,13 @@
         <v>10</v>
       </c>
       <c r="B206" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C206" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="D206" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="E206" t="str">
         <f t="shared" si="3"/>
@@ -6331,32 +6331,26 @@
     </row>
     <row r="207" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
-        <v>48</v>
+        <v>10</v>
       </c>
       <c r="B207" t="s">
         <v>114</v>
       </c>
       <c r="C207" t="s">
-        <v>274</v>
+        <v>185</v>
       </c>
       <c r="D207" t="s">
-        <v>15</v>
+        <v>131</v>
       </c>
       <c r="E207" t="str">
         <f t="shared" si="3"/>
-        <v>CRM</v>
-      </c>
-      <c r="F207">
-        <v>1</v>
+        <v/>
       </c>
       <c r="G207" t="s">
         <v>9</v>
       </c>
       <c r="H207">
         <v>1</v>
-      </c>
-      <c r="I207">
-        <v>166</v>
       </c>
     </row>
     <row r="208" spans="1:9" x14ac:dyDescent="0.25">
@@ -6367,10 +6361,10 @@
         <v>114</v>
       </c>
       <c r="C208" t="s">
-        <v>261</v>
+        <v>145</v>
       </c>
       <c r="D208" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E208" t="str">
         <f t="shared" si="3"/>
@@ -6383,32 +6377,25 @@
         <v>1</v>
       </c>
     </row>
-    <row r="209" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
-        <v>10</v>
+        <v>48</v>
       </c>
       <c r="B209" t="s">
         <v>114</v>
       </c>
       <c r="C209" t="s">
-        <v>145</v>
+        <v>274</v>
       </c>
       <c r="D209" t="s">
-        <v>130</v>
+        <v>15</v>
       </c>
       <c r="E209" t="str">
-        <f t="shared" ref="E209:E212" si="4">IF(D209="RITHM CAPITAL CORP","RITM",
-IF(D209="SALESFORCE.COM","CRM",
-IF(D209="NVIDIA CORP","NVDA",
-IF(D209="MICROSOFT CORP","MSFT",
-IF(D209="SPDR S&amp;P US DIVIDEND ARISTOCRATS ETF","SPYD.DE",
-IF(D209="INVESCO PHYSICAL GOLD ETC","SGLD",
-IF(D209="SPDR S&amp;P US CONSUMER STAPLES SEL","SXLP.L",
-IF(D209="WIX.COM LTD","WIX",
-IF(D209="ADVANCED MICRO DEVICES INC","AMD",
-IF(D209="SPROTT PHYSICAL GOLD TRUST","PHYS",
-""))))))))))</f>
-        <v/>
+        <f t="shared" si="3"/>
+        <v>CRM</v>
+      </c>
+      <c r="F209">
+        <v>1</v>
       </c>
       <c r="G209" t="s">
         <v>9</v>
@@ -6416,190 +6403,200 @@
       <c r="H209">
         <v>1</v>
       </c>
-    </row>
-    <row r="210" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="I209">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="210" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
-        <v>48</v>
+        <v>10</v>
       </c>
       <c r="B210" t="s">
         <v>114</v>
       </c>
       <c r="C210" t="s">
+        <v>261</v>
+      </c>
+      <c r="D210" t="s">
+        <v>131</v>
+      </c>
+      <c r="E210" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="G210" t="s">
+        <v>9</v>
+      </c>
+      <c r="H210">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="211" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A211" t="s">
+        <v>10</v>
+      </c>
+      <c r="B211" t="s">
+        <v>114</v>
+      </c>
+      <c r="C211" t="s">
+        <v>145</v>
+      </c>
+      <c r="D211" t="s">
+        <v>130</v>
+      </c>
+      <c r="E211" t="str">
+        <f t="shared" ref="E211:E214" si="4">IF(D211="RITHM CAPITAL CORP","RITM",
+IF(D211="SALESFORCE.COM","CRM",
+IF(D211="NVIDIA CORP","NVDA",
+IF(D211="MICROSOFT CORP","MSFT",
+IF(D211="SPDR S&amp;P US DIVIDEND ARISTOCRATS ETF","SPYD.DE",
+IF(D211="INVESCO PHYSICAL GOLD ETC","SGLD",
+IF(D211="SPDR S&amp;P US CONSUMER STAPLES SEL","SXLP.L",
+IF(D211="WIX.COM LTD","WIX",
+IF(D211="ADVANCED MICRO DEVICES INC","AMD",
+IF(D211="SPROTT PHYSICAL GOLD TRUST","PHYS",
+""))))))))))</f>
+        <v/>
+      </c>
+      <c r="G211" t="s">
+        <v>9</v>
+      </c>
+      <c r="H211">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="212" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A212" t="s">
+        <v>48</v>
+      </c>
+      <c r="B212" t="s">
+        <v>114</v>
+      </c>
+      <c r="C212" t="s">
         <v>275</v>
       </c>
-      <c r="D210" t="s">
+      <c r="D212" t="s">
         <v>13</v>
       </c>
-      <c r="E210" t="str">
+      <c r="E212" t="str">
         <f t="shared" si="4"/>
         <v>RITM</v>
       </c>
-      <c r="F210">
+      <c r="F212">
         <v>34</v>
       </c>
-      <c r="G210" t="s">
-        <v>9</v>
-      </c>
-      <c r="H210">
-        <v>1</v>
-      </c>
-      <c r="I210">
+      <c r="G212" t="s">
+        <v>9</v>
+      </c>
+      <c r="H212">
+        <v>1</v>
+      </c>
+      <c r="I212">
         <v>380.8</v>
       </c>
     </row>
-    <row r="211" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A211" t="s">
-        <v>10</v>
-      </c>
-      <c r="B211" t="s">
-        <v>115</v>
-      </c>
-      <c r="C211" t="s">
-        <v>192</v>
-      </c>
-      <c r="D211" t="s">
-        <v>131</v>
-      </c>
-      <c r="E211" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="G211" t="s">
-        <v>9</v>
-      </c>
-      <c r="H211">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="212" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A212" t="s">
-        <v>10</v>
-      </c>
-      <c r="B212" t="s">
-        <v>115</v>
-      </c>
-      <c r="C212" t="s">
-        <v>145</v>
-      </c>
-      <c r="D212" t="s">
-        <v>130</v>
-      </c>
-      <c r="E212" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="G212" t="s">
-        <v>9</v>
-      </c>
-      <c r="H212">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="213" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
-        <v>48</v>
+        <v>10</v>
       </c>
       <c r="B213" t="s">
         <v>115</v>
       </c>
       <c r="C213" t="s">
+        <v>192</v>
+      </c>
+      <c r="D213" t="s">
+        <v>131</v>
+      </c>
+      <c r="E213" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="G213" t="s">
+        <v>9</v>
+      </c>
+      <c r="H213">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="214" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A214" t="s">
+        <v>10</v>
+      </c>
+      <c r="B214" t="s">
+        <v>115</v>
+      </c>
+      <c r="C214" t="s">
+        <v>145</v>
+      </c>
+      <c r="D214" t="s">
+        <v>130</v>
+      </c>
+      <c r="E214" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="G214" t="s">
+        <v>9</v>
+      </c>
+      <c r="H214">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="215" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A215" t="s">
+        <v>48</v>
+      </c>
+      <c r="B215" t="s">
+        <v>115</v>
+      </c>
+      <c r="C215" t="s">
         <v>276</v>
       </c>
-      <c r="D213" t="s">
+      <c r="D215" t="s">
         <v>50</v>
       </c>
-      <c r="E213" t="s">
+      <c r="E215" t="s">
         <v>297</v>
       </c>
-      <c r="F213">
+      <c r="F215">
         <v>15</v>
       </c>
-      <c r="G213" t="s">
-        <v>9</v>
-      </c>
-      <c r="H213">
-        <v>1</v>
-      </c>
-      <c r="I213">
+      <c r="G215" t="s">
+        <v>9</v>
+      </c>
+      <c r="H215">
+        <v>1</v>
+      </c>
+      <c r="I215">
         <v>547.5</v>
       </c>
-      <c r="N213" s="6"/>
-    </row>
-    <row r="214" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A214" t="s">
-        <v>10</v>
-      </c>
-      <c r="B214" t="s">
-        <v>116</v>
-      </c>
-      <c r="C214" t="s">
-        <v>277</v>
-      </c>
-      <c r="D214" t="s">
-        <v>131</v>
-      </c>
-      <c r="E214" t="str">
-        <f t="shared" ref="E214:E251" si="5">IF(D214="RITHM CAPITAL CORP","RITM",
-IF(D214="SALESFORCE.COM","CRM",
-IF(D214="NVIDIA CORP","NVDA",
-IF(D214="MICROSOFT CORP","MSFT",
-IF(D214="SPDR S&amp;P US DIVIDEND ARISTOCRATS ETF","SPYD.DE",
-IF(D214="INVESCO PHYSICAL GOLD ETC","SGLD",
-IF(D214="SPDR S&amp;P US CONSUMER STAPLES SEL","SXLP.L",
-IF(D214="WIX.COM LTD","WIX",
-IF(D214="ADVANCED MICRO DEVICES INC","AMD",
-"")))))))))</f>
-        <v/>
-      </c>
-      <c r="G214" t="s">
-        <v>9</v>
-      </c>
-      <c r="H214">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="215" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A215" t="s">
-        <v>10</v>
-      </c>
-      <c r="B215" t="s">
-        <v>116</v>
-      </c>
-      <c r="C215" t="s">
-        <v>145</v>
-      </c>
-      <c r="D215" t="s">
-        <v>130</v>
-      </c>
-      <c r="E215" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="G215" t="s">
-        <v>9</v>
-      </c>
-      <c r="H215">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="216" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="216" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="B216" t="s">
         <v>116</v>
       </c>
       <c r="C216" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D216" t="s">
-        <v>88</v>
-      </c>
-      <c r="E216" t="s">
-        <v>296</v>
-      </c>
-      <c r="F216">
-        <v>22</v>
+        <v>131</v>
+      </c>
+      <c r="E216" t="str">
+        <f t="shared" ref="E216:E253" si="5">IF(D216="RITHM CAPITAL CORP","RITM",
+IF(D216="SALESFORCE.COM","CRM",
+IF(D216="NVIDIA CORP","NVDA",
+IF(D216="MICROSOFT CORP","MSFT",
+IF(D216="SPDR S&amp;P US DIVIDEND ARISTOCRATS ETF","SPYD.DE",
+IF(D216="INVESCO PHYSICAL GOLD ETC","SGLD",
+IF(D216="SPDR S&amp;P US CONSUMER STAPLES SEL","SXLP.L",
+IF(D216="WIX.COM LTD","WIX",
+IF(D216="ADVANCED MICRO DEVICES INC","AMD",
+"")))))))))</f>
+        <v/>
       </c>
       <c r="G216" t="s">
         <v>9</v>
@@ -6607,19 +6604,19 @@
       <c r="H216">
         <v>1</v>
       </c>
-      <c r="I216">
-        <v>320.10000000000002</v>
-      </c>
-    </row>
-    <row r="217" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="217" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B217" t="s">
-        <v>117</v>
-      </c>
-      <c r="C217">
-        <v>167</v>
+        <v>116</v>
+      </c>
+      <c r="C217" t="s">
+        <v>145</v>
+      </c>
+      <c r="D217" t="s">
+        <v>130</v>
       </c>
       <c r="E217" t="str">
         <f t="shared" si="5"/>
@@ -6632,22 +6629,24 @@
         <v>1</v>
       </c>
     </row>
-    <row r="218" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="B218" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C218" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D218" t="s">
-        <v>131</v>
-      </c>
-      <c r="E218" t="str">
-        <f t="shared" si="5"/>
-        <v/>
+        <v>88</v>
+      </c>
+      <c r="E218" t="s">
+        <v>296</v>
+      </c>
+      <c r="F218">
+        <v>22</v>
       </c>
       <c r="G218" t="s">
         <v>9</v>
@@ -6655,19 +6654,19 @@
       <c r="H218">
         <v>1</v>
       </c>
-    </row>
-    <row r="219" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="I218">
+        <v>320.10000000000002</v>
+      </c>
+    </row>
+    <row r="219" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B219" t="s">
-        <v>118</v>
-      </c>
-      <c r="C219" t="s">
-        <v>145</v>
-      </c>
-      <c r="D219" t="s">
-        <v>130</v>
+        <v>117</v>
+      </c>
+      <c r="C219">
+        <v>167</v>
       </c>
       <c r="E219" t="str">
         <f t="shared" si="5"/>
@@ -6680,25 +6679,22 @@
         <v>1</v>
       </c>
     </row>
-    <row r="220" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="B220" t="s">
         <v>118</v>
       </c>
       <c r="C220" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D220" t="s">
-        <v>15</v>
+        <v>131</v>
       </c>
       <c r="E220" t="str">
         <f t="shared" si="5"/>
-        <v>CRM</v>
-      </c>
-      <c r="F220">
-        <v>1</v>
+        <v/>
       </c>
       <c r="G220" t="s">
         <v>9</v>
@@ -6706,25 +6702,19 @@
       <c r="H220">
         <v>1</v>
       </c>
-      <c r="I220">
-        <v>176</v>
-      </c>
-      <c r="J220" s="3">
-        <v>162.5</v>
-      </c>
-    </row>
-    <row r="221" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="221" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
         <v>10</v>
       </c>
       <c r="B221" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C221" t="s">
-        <v>281</v>
+        <v>145</v>
       </c>
       <c r="D221" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E221" t="str">
         <f t="shared" si="5"/>
@@ -6737,22 +6727,25 @@
         <v>1</v>
       </c>
     </row>
-    <row r="222" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="B222" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C222" t="s">
-        <v>145</v>
+        <v>280</v>
       </c>
       <c r="D222" t="s">
-        <v>130</v>
+        <v>15</v>
       </c>
       <c r="E222" t="str">
         <f t="shared" si="5"/>
-        <v/>
+        <v>CRM</v>
+      </c>
+      <c r="F222">
+        <v>1</v>
       </c>
       <c r="G222" t="s">
         <v>9</v>
@@ -6760,26 +6753,29 @@
       <c r="H222">
         <v>1</v>
       </c>
-    </row>
-    <row r="223" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="I222">
+        <v>176</v>
+      </c>
+      <c r="J222" s="3">
+        <v>162.5</v>
+      </c>
+    </row>
+    <row r="223" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="B223" t="s">
         <v>119</v>
       </c>
       <c r="C223" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D223" t="s">
-        <v>18</v>
+        <v>131</v>
       </c>
       <c r="E223" t="str">
         <f t="shared" si="5"/>
-        <v>NVDA</v>
-      </c>
-      <c r="F223">
-        <v>1</v>
+        <v/>
       </c>
       <c r="G223" t="s">
         <v>9</v>
@@ -6787,54 +6783,50 @@
       <c r="H223">
         <v>1</v>
       </c>
-      <c r="I223">
-        <v>204.27</v>
-      </c>
-      <c r="J223">
-        <v>187.73</v>
-      </c>
-    </row>
-    <row r="224" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A224" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B224" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="C224" s="2" t="s">
-        <v>283</v>
-      </c>
-      <c r="D224" s="2" t="s">
-        <v>131</v>
+    </row>
+    <row r="224" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A224" t="s">
+        <v>10</v>
+      </c>
+      <c r="B224" t="s">
+        <v>119</v>
+      </c>
+      <c r="C224" t="s">
+        <v>145</v>
+      </c>
+      <c r="D224" t="s">
+        <v>130</v>
       </c>
       <c r="E224" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="F224" s="2"/>
       <c r="G224" t="s">
         <v>9</v>
       </c>
-      <c r="H224" s="2">
+      <c r="H224">
         <v>1</v>
       </c>
     </row>
     <row r="225" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="B225" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C225" t="s">
-        <v>145</v>
+        <v>282</v>
       </c>
       <c r="D225" t="s">
-        <v>130</v>
+        <v>18</v>
       </c>
       <c r="E225" t="str">
         <f t="shared" si="5"/>
-        <v/>
+        <v>NVDA</v>
+      </c>
+      <c r="F225">
+        <v>1</v>
       </c>
       <c r="G225" t="s">
         <v>9</v>
@@ -6842,49 +6834,50 @@
       <c r="H225">
         <v>1</v>
       </c>
+      <c r="I225">
+        <v>204.27</v>
+      </c>
+      <c r="J225">
+        <v>187.73</v>
+      </c>
     </row>
     <row r="226" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A226" t="s">
-        <v>25</v>
-      </c>
-      <c r="B226" t="s">
+      <c r="A226" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B226" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="C226" t="s">
-        <v>284</v>
-      </c>
-      <c r="D226" t="s">
-        <v>121</v>
+      <c r="C226" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="D226" s="2" t="s">
+        <v>131</v>
       </c>
       <c r="E226" t="str">
         <f t="shared" si="5"/>
-        <v>AMD</v>
-      </c>
-      <c r="F226">
-        <v>1</v>
-      </c>
+        <v/>
+      </c>
+      <c r="F226" s="2"/>
       <c r="G226" t="s">
         <v>9</v>
       </c>
-      <c r="H226">
-        <v>1</v>
-      </c>
-      <c r="I226">
-        <v>95.2</v>
-      </c>
-      <c r="J226" s="3">
-        <v>87.73</v>
+      <c r="H226" s="2">
+        <v>1</v>
       </c>
     </row>
     <row r="227" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B227" t="s">
-        <v>122</v>
-      </c>
-      <c r="C227">
-        <v>167</v>
+        <v>120</v>
+      </c>
+      <c r="C227" t="s">
+        <v>145</v>
+      </c>
+      <c r="D227" t="s">
+        <v>130</v>
       </c>
       <c r="E227" t="str">
         <f t="shared" si="5"/>
@@ -6899,20 +6892,23 @@
     </row>
     <row r="228" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="B228" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="C228" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D228" t="s">
-        <v>20</v>
+        <v>121</v>
       </c>
       <c r="E228" t="str">
         <f t="shared" si="5"/>
-        <v>SPYD.DE</v>
+        <v>AMD</v>
+      </c>
+      <c r="F228">
+        <v>1</v>
       </c>
       <c r="G228" t="s">
         <v>9</v>
@@ -6921,79 +6917,85 @@
         <v>1</v>
       </c>
       <c r="I228">
-        <v>7.25</v>
+        <v>95.2</v>
+      </c>
+      <c r="J228" s="3">
+        <v>87.73</v>
       </c>
     </row>
     <row r="229" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="B229" t="s">
-        <v>124</v>
-      </c>
-      <c r="C229" t="s">
-        <v>286</v>
-      </c>
-      <c r="D229" t="s">
-        <v>18</v>
+        <v>122</v>
+      </c>
+      <c r="C229">
+        <v>167</v>
       </c>
       <c r="E229" t="str">
         <f t="shared" si="5"/>
-        <v>NVDA</v>
+        <v/>
       </c>
       <c r="G229" t="s">
         <v>9</v>
       </c>
       <c r="H229">
         <v>1</v>
-      </c>
-      <c r="I229">
-        <v>0.08</v>
       </c>
     </row>
     <row r="230" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B230" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C230" t="s">
-        <v>157</v>
+        <v>285</v>
       </c>
       <c r="D230" t="s">
-        <v>133</v>
+        <v>20</v>
       </c>
       <c r="E230" t="str">
         <f t="shared" si="5"/>
-        <v/>
+        <v>SPYD.DE</v>
       </c>
       <c r="G230" t="s">
         <v>9</v>
       </c>
       <c r="H230">
         <v>1</v>
+      </c>
+      <c r="I230">
+        <v>7.25</v>
       </c>
     </row>
     <row r="231" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B231" t="s">
-        <v>125</v>
-      </c>
-      <c r="C231">
-        <v>167</v>
+        <v>124</v>
+      </c>
+      <c r="C231" t="s">
+        <v>286</v>
+      </c>
+      <c r="D231" t="s">
+        <v>18</v>
       </c>
       <c r="E231" t="str">
         <f t="shared" si="5"/>
-        <v/>
+        <v>NVDA</v>
       </c>
       <c r="G231" t="s">
         <v>9</v>
       </c>
       <c r="H231">
         <v>1</v>
+      </c>
+      <c r="I231">
+        <v>0.08</v>
       </c>
     </row>
     <row r="232" spans="1:10" x14ac:dyDescent="0.25">
@@ -7001,13 +7003,13 @@
         <v>10</v>
       </c>
       <c r="B232" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C232" t="s">
-        <v>149</v>
+        <v>157</v>
       </c>
       <c r="D232" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E232" t="str">
         <f t="shared" si="5"/>
@@ -7022,16 +7024,13 @@
     </row>
     <row r="233" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B233" t="s">
         <v>125</v>
       </c>
-      <c r="C233" t="s">
-        <v>149</v>
-      </c>
-      <c r="D233" t="s">
-        <v>132</v>
+      <c r="C233">
+        <v>167</v>
       </c>
       <c r="E233" t="str">
         <f t="shared" si="5"/>
@@ -7097,13 +7096,13 @@
         <v>10</v>
       </c>
       <c r="B236" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C236" t="s">
-        <v>287</v>
+        <v>149</v>
       </c>
       <c r="D236" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E236" t="str">
         <f t="shared" si="5"/>
@@ -7118,80 +7117,80 @@
     </row>
     <row r="237" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
+        <v>10</v>
+      </c>
+      <c r="B237" t="s">
+        <v>125</v>
+      </c>
+      <c r="C237" t="s">
+        <v>149</v>
+      </c>
+      <c r="D237" t="s">
+        <v>132</v>
+      </c>
+      <c r="E237" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="G237" t="s">
+        <v>9</v>
+      </c>
+      <c r="H237">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="238" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A238" t="s">
+        <v>10</v>
+      </c>
+      <c r="B238" t="s">
+        <v>126</v>
+      </c>
+      <c r="C238" t="s">
+        <v>287</v>
+      </c>
+      <c r="D238" t="s">
+        <v>131</v>
+      </c>
+      <c r="E238" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="G238" t="s">
+        <v>9</v>
+      </c>
+      <c r="H238">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="239" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A239" t="s">
         <v>48</v>
       </c>
-      <c r="B237" t="s">
+      <c r="B239" t="s">
         <v>126</v>
       </c>
-      <c r="C237" t="s">
+      <c r="C239" t="s">
         <v>288</v>
       </c>
-      <c r="D237" t="s">
+      <c r="D239" t="s">
         <v>20</v>
       </c>
-      <c r="E237" t="str">
-        <f>IF(D237="RITHM CAPITAL CORP","RITM",
-IF(D237="SALESFORCE.COM","CRM",
-IF(D237="NVIDIA CORP","NVDA",
-IF(D237="MICROSOFT CORP","MSFT",
-IF(D237="SPDR S&amp;P US DIVIDEND ARISTOCRATS ETF","SPYD.DE",
-IF(D237="INVESCO PHYSICAL GOLD ETC","SGLD",
-IF(D237="SPDR S&amp;P US CONSUMER STAPLES SEL","SXLP.L",
-IF(D237="WIX.COM LTD","WIX",
-IF(D237="ADVANCED MICRO DEVICES INC","AMD",
+      <c r="E239" t="str">
+        <f>IF(D239="RITHM CAPITAL CORP","RITM",
+IF(D239="SALESFORCE.COM","CRM",
+IF(D239="NVIDIA CORP","NVDA",
+IF(D239="MICROSOFT CORP","MSFT",
+IF(D239="SPDR S&amp;P US DIVIDEND ARISTOCRATS ETF","SPYD.DE",
+IF(D239="INVESCO PHYSICAL GOLD ETC","SGLD",
+IF(D239="SPDR S&amp;P US CONSUMER STAPLES SEL","SXLP.L",
+IF(D239="WIX.COM LTD","WIX",
+IF(D239="ADVANCED MICRO DEVICES INC","AMD",
 "")))))))))</f>
         <v>SPYD.DE</v>
       </c>
-      <c r="F237">
+      <c r="F239">
         <v>20</v>
-      </c>
-      <c r="G237" t="s">
-        <v>9</v>
-      </c>
-      <c r="H237">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="238" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A238" t="s">
-        <v>10</v>
-      </c>
-      <c r="B238" t="s">
-        <v>127</v>
-      </c>
-      <c r="C238" t="s">
-        <v>289</v>
-      </c>
-      <c r="D238" t="s">
-        <v>131</v>
-      </c>
-      <c r="E238" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="G238" t="s">
-        <v>9</v>
-      </c>
-      <c r="H238">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="239" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A239" t="s">
-        <v>10</v>
-      </c>
-      <c r="B239" t="s">
-        <v>127</v>
-      </c>
-      <c r="C239" t="s">
-        <v>145</v>
-      </c>
-      <c r="D239" t="s">
-        <v>130</v>
-      </c>
-      <c r="E239" t="str">
-        <f t="shared" si="5"/>
-        <v/>
       </c>
       <c r="G239" t="s">
         <v>9</v>
@@ -7202,31 +7201,26 @@
     </row>
     <row r="240" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
-        <v>48</v>
+        <v>10</v>
       </c>
       <c r="B240" t="s">
         <v>127</v>
       </c>
       <c r="C240" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="D240" t="s">
-        <v>88</v>
-      </c>
-      <c r="E240" t="s">
-        <v>296</v>
-      </c>
-      <c r="F240">
-        <v>29</v>
+        <v>131</v>
+      </c>
+      <c r="E240" t="str">
+        <f t="shared" si="5"/>
+        <v/>
       </c>
       <c r="G240" t="s">
         <v>9</v>
       </c>
       <c r="H240">
         <v>1</v>
-      </c>
-      <c r="I240">
-        <v>427.75</v>
       </c>
     </row>
     <row r="241" spans="1:9" x14ac:dyDescent="0.25">
@@ -7237,10 +7231,10 @@
         <v>127</v>
       </c>
       <c r="C241" t="s">
-        <v>291</v>
+        <v>145</v>
       </c>
       <c r="D241" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E241" t="str">
         <f t="shared" si="5"/>
@@ -7255,47 +7249,49 @@
     </row>
     <row r="242" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
-        <v>10</v>
+        <v>48</v>
       </c>
       <c r="B242" t="s">
         <v>127</v>
       </c>
       <c r="C242" t="s">
-        <v>145</v>
+        <v>290</v>
       </c>
       <c r="D242" t="s">
-        <v>130</v>
-      </c>
-      <c r="E242" t="str">
-        <f t="shared" si="5"/>
-        <v/>
+        <v>88</v>
+      </c>
+      <c r="E242" t="s">
+        <v>296</v>
+      </c>
+      <c r="F242">
+        <v>29</v>
       </c>
       <c r="G242" t="s">
         <v>9</v>
       </c>
       <c r="H242">
         <v>1</v>
+      </c>
+      <c r="I242">
+        <v>427.75</v>
       </c>
     </row>
     <row r="243" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
-        <v>48</v>
+        <v>10</v>
       </c>
       <c r="B243" t="s">
         <v>127</v>
       </c>
       <c r="C243" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D243" t="s">
-        <v>121</v>
+        <v>131</v>
       </c>
       <c r="E243" t="str">
         <f t="shared" si="5"/>
-        <v>AMD</v>
-      </c>
-      <c r="F243">
-        <v>1</v>
+        <v/>
       </c>
       <c r="G243" t="s">
         <v>9</v>
@@ -7303,52 +7299,50 @@
       <c r="H243">
         <v>1</v>
       </c>
-      <c r="I243">
-        <v>119.82</v>
-      </c>
     </row>
     <row r="244" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A244" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B244" s="2" t="s">
+      <c r="A244" t="s">
+        <v>10</v>
+      </c>
+      <c r="B244" t="s">
         <v>127</v>
       </c>
-      <c r="C244" s="2" t="s">
-        <v>254</v>
-      </c>
-      <c r="D244" s="2" t="s">
-        <v>131</v>
+      <c r="C244" t="s">
+        <v>145</v>
+      </c>
+      <c r="D244" t="s">
+        <v>130</v>
       </c>
       <c r="E244" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="F244" s="2"/>
       <c r="G244" t="s">
         <v>9</v>
       </c>
-      <c r="H244" s="2">
-        <v>1</v>
-      </c>
-      <c r="I244" s="2"/>
+      <c r="H244">
+        <v>1</v>
+      </c>
     </row>
     <row r="245" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
-        <v>10</v>
+        <v>48</v>
       </c>
       <c r="B245" t="s">
         <v>127</v>
       </c>
       <c r="C245" t="s">
-        <v>145</v>
+        <v>292</v>
       </c>
       <c r="D245" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="E245" t="str">
         <f t="shared" si="5"/>
-        <v/>
+        <v>AMD</v>
+      </c>
+      <c r="F245">
+        <v>1</v>
       </c>
       <c r="G245" t="s">
         <v>9</v>
@@ -7356,36 +7350,35 @@
       <c r="H245">
         <v>1</v>
       </c>
+      <c r="I245">
+        <v>119.82</v>
+      </c>
     </row>
     <row r="246" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A246" t="s">
-        <v>48</v>
-      </c>
-      <c r="B246" t="s">
+      <c r="A246" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B246" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="C246" t="s">
-        <v>293</v>
-      </c>
-      <c r="D246" t="s">
-        <v>15</v>
+      <c r="C246" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="D246" s="2" t="s">
+        <v>131</v>
       </c>
       <c r="E246" t="str">
         <f t="shared" si="5"/>
-        <v>CRM</v>
-      </c>
-      <c r="F246">
-        <v>1</v>
-      </c>
+        <v/>
+      </c>
+      <c r="F246" s="2"/>
       <c r="G246" t="s">
         <v>9</v>
       </c>
-      <c r="H246">
-        <v>1</v>
-      </c>
-      <c r="I246">
-        <v>207.06</v>
-      </c>
+      <c r="H246" s="2">
+        <v>1</v>
+      </c>
+      <c r="I246" s="2"/>
     </row>
     <row r="247" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
@@ -7395,10 +7388,10 @@
         <v>127</v>
       </c>
       <c r="C247" t="s">
-        <v>294</v>
+        <v>145</v>
       </c>
       <c r="D247" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E247" t="str">
         <f t="shared" si="5"/>
@@ -7413,67 +7406,70 @@
     </row>
     <row r="248" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
-        <v>10</v>
+        <v>48</v>
       </c>
       <c r="B248" t="s">
         <v>127</v>
       </c>
       <c r="C248" t="s">
-        <v>145</v>
+        <v>293</v>
       </c>
       <c r="D248" t="s">
-        <v>130</v>
+        <v>15</v>
       </c>
       <c r="E248" t="str">
         <f t="shared" si="5"/>
-        <v/>
+        <v>CRM</v>
+      </c>
+      <c r="F248">
+        <v>1</v>
       </c>
       <c r="G248" t="s">
         <v>9</v>
       </c>
       <c r="H248">
         <v>1</v>
+      </c>
+      <c r="I248">
+        <v>207.06</v>
       </c>
     </row>
     <row r="249" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
-        <v>48</v>
+        <v>10</v>
       </c>
       <c r="B249" t="s">
         <v>127</v>
       </c>
       <c r="C249" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D249" t="s">
-        <v>18</v>
+        <v>131</v>
       </c>
       <c r="E249" t="str">
         <f t="shared" si="5"/>
-        <v>NVDA</v>
-      </c>
-      <c r="F249">
-        <v>2</v>
+        <v/>
       </c>
       <c r="G249" t="s">
         <v>9</v>
       </c>
       <c r="H249">
         <v>1</v>
-      </c>
-      <c r="I249">
-        <v>480.64</v>
       </c>
     </row>
     <row r="250" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B250" t="s">
-        <v>128</v>
-      </c>
-      <c r="C250">
-        <v>400</v>
+        <v>127</v>
+      </c>
+      <c r="C250" t="s">
+        <v>145</v>
+      </c>
+      <c r="D250" t="s">
+        <v>130</v>
       </c>
       <c r="E250" t="str">
         <f t="shared" si="5"/>
@@ -7483,22 +7479,28 @@
         <v>9</v>
       </c>
       <c r="H250">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="251" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
-        <v>7</v>
+        <v>48</v>
       </c>
       <c r="B251" t="s">
-        <v>129</v>
-      </c>
-      <c r="C251">
-        <v>2100</v>
+        <v>127</v>
+      </c>
+      <c r="C251" t="s">
+        <v>295</v>
+      </c>
+      <c r="D251" t="s">
+        <v>18</v>
       </c>
       <c r="E251" t="str">
         <f t="shared" si="5"/>
-        <v/>
+        <v>NVDA</v>
+      </c>
+      <c r="F251">
+        <v>2</v>
       </c>
       <c r="G251" t="s">
         <v>9</v>
@@ -7506,9 +7508,54 @@
       <c r="H251">
         <v>1</v>
       </c>
+      <c r="I251">
+        <v>480.64</v>
+      </c>
+    </row>
+    <row r="252" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A252" t="s">
+        <v>7</v>
+      </c>
+      <c r="B252" t="s">
+        <v>128</v>
+      </c>
+      <c r="C252">
+        <v>400</v>
+      </c>
+      <c r="E252" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="G252" t="s">
+        <v>9</v>
+      </c>
+      <c r="H252">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="253" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A253" t="s">
+        <v>7</v>
+      </c>
+      <c r="B253" t="s">
+        <v>129</v>
+      </c>
+      <c r="C253">
+        <v>2100</v>
+      </c>
+      <c r="E253" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="G253" t="s">
+        <v>9</v>
+      </c>
+      <c r="H253">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:J251" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:J253" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>